--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I903"/>
+  <dimension ref="A1:I904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31985,6 +31985,41 @@
         <v>21050400</v>
       </c>
     </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E904" t="n">
+        <v>1</v>
+      </c>
+      <c r="F904" t="n">
+        <v>1</v>
+      </c>
+      <c r="G904" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H904" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I904" t="n">
+        <v>5269000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I904"/>
+  <dimension ref="A1:I905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32020,6 +32020,41 @@
         <v>5269000</v>
       </c>
     </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E905" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F905" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G905" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H905" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I905" t="n">
+        <v>15855700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I905"/>
+  <dimension ref="A1:I906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32055,6 +32055,41 @@
         <v>15855700</v>
       </c>
     </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E906" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G906" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I906" t="n">
+        <v>4921000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I906"/>
+  <dimension ref="A1:I907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32090,6 +32090,41 @@
         <v>4921000</v>
       </c>
     </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E907" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G907" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H907" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I907" t="n">
+        <v>4976000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I907"/>
+  <dimension ref="A1:I908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32125,6 +32125,41 @@
         <v>4976000</v>
       </c>
     </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E908" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G908" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H908" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I908" t="n">
+        <v>15030400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I908"/>
+  <dimension ref="A1:I909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32160,6 +32160,41 @@
         <v>15030400</v>
       </c>
     </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E909" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G909" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H909" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I909" t="n">
+        <v>7228000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I909"/>
+  <dimension ref="A1:I910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32195,6 +32195,41 @@
         <v>7228000</v>
       </c>
     </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E910" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G910" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H910" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I910" t="n">
+        <v>11568900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I910"/>
+  <dimension ref="A1:I911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32230,6 +32230,41 @@
         <v>11568900</v>
       </c>
     </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E911" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G911" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H911" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I911" t="n">
+        <v>5987800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I911"/>
+  <dimension ref="A1:I912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32265,6 +32265,41 @@
         <v>5987800</v>
       </c>
     </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E912" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G912" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I912" t="n">
+        <v>2480700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I912"/>
+  <dimension ref="A1:I913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32300,6 +32300,41 @@
         <v>2480700</v>
       </c>
     </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E913" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F913" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G913" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I913" t="n">
+        <v>6599700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I913"/>
+  <dimension ref="A1:I914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32335,6 +32335,41 @@
         <v>6599700</v>
       </c>
     </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E914" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G914" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I914" t="n">
+        <v>3393100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I914"/>
+  <dimension ref="A1:I915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32370,6 +32370,41 @@
         <v>3393100</v>
       </c>
     </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E915" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G915" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I915" t="n">
+        <v>3554000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I915"/>
+  <dimension ref="A1:I917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32405,6 +32405,76 @@
         <v>3554000</v>
       </c>
     </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E916" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G916" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H916" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I916" t="n">
+        <v>5270000</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E917" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G917" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H917" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I917" t="n">
+        <v>3756800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I917"/>
+  <dimension ref="A1:I919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32475,6 +32475,76 @@
         <v>3756800</v>
       </c>
     </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E918" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F918" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G918" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I918" t="n">
+        <v>1922700</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E919" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F919" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G919" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H919" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I919" t="n">
+        <v>1644400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I919"/>
+  <dimension ref="A1:I920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32545,6 +32545,41 @@
         <v>1644400</v>
       </c>
     </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E920" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F920" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G920" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H920" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I920" t="n">
+        <v>1087700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I920"/>
+  <dimension ref="A1:I921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32580,6 +32580,41 @@
         <v>1087700</v>
       </c>
     </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E921" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F921" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G921" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H921" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I921" t="n">
+        <v>2112900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I921"/>
+  <dimension ref="A1:I922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32615,6 +32615,41 @@
         <v>2112900</v>
       </c>
     </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E922" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F922" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G922" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H922" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I922" t="n">
+        <v>824300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I922"/>
+  <dimension ref="A1:I923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32650,6 +32650,41 @@
         <v>824300</v>
       </c>
     </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E923" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F923" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G923" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H923" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I923" t="n">
+        <v>2957100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I923"/>
+  <dimension ref="A1:I925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32685,6 +32685,76 @@
         <v>2957100</v>
       </c>
     </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E924" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G924" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H924" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I924" t="n">
+        <v>3015100</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E925" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F925" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G925" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H925" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I925" t="n">
+        <v>1817300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I925"/>
+  <dimension ref="A1:I926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32755,6 +32755,41 @@
         <v>1817300</v>
       </c>
     </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E926" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F926" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G926" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H926" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I926" t="n">
+        <v>4194400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I926"/>
+  <dimension ref="A1:I927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32790,6 +32790,41 @@
         <v>4194400</v>
       </c>
     </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F927" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G927" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H927" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I927" t="n">
+        <v>4176000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I927"/>
+  <dimension ref="A1:I936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30272,11 +30272,11 @@
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -30290,28 +30290,28 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>0.67</v>
+        <v>0.875</v>
       </c>
       <c r="F855" t="n">
-        <v>0.675</v>
+        <v>0.885</v>
       </c>
       <c r="G855" t="n">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="H855" t="n">
-        <v>0.675</v>
+        <v>0.88</v>
       </c>
       <c r="I855" t="n">
-        <v>961900</v>
+        <v>2308600</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -30325,28 +30325,28 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>0.665</v>
+        <v>0.88</v>
       </c>
       <c r="F856" t="n">
-        <v>0.715</v>
+        <v>0.88</v>
       </c>
       <c r="G856" t="n">
-        <v>0.665</v>
+        <v>0.86</v>
       </c>
       <c r="H856" t="n">
-        <v>0.7</v>
+        <v>0.865</v>
       </c>
       <c r="I856" t="n">
-        <v>1856700</v>
+        <v>1567000</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -30360,28 +30360,28 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>0.7</v>
+        <v>0.865</v>
       </c>
       <c r="F857" t="n">
-        <v>0.715</v>
+        <v>0.865</v>
       </c>
       <c r="G857" t="n">
-        <v>0.675</v>
+        <v>0.83</v>
       </c>
       <c r="H857" t="n">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
       <c r="I857" t="n">
-        <v>1648300</v>
+        <v>1257100</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -30395,28 +30395,28 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>0.695</v>
+        <v>0.835</v>
       </c>
       <c r="F858" t="n">
-        <v>0.695</v>
+        <v>0.865</v>
       </c>
       <c r="G858" t="n">
-        <v>0.675</v>
+        <v>0.83</v>
       </c>
       <c r="H858" t="n">
-        <v>0.68</v>
+        <v>0.845</v>
       </c>
       <c r="I858" t="n">
-        <v>596300</v>
+        <v>1177400</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -30430,28 +30430,28 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.835</v>
       </c>
       <c r="F859" t="n">
-        <v>0.715</v>
+        <v>0.85</v>
       </c>
       <c r="G859" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="H859" t="n">
-        <v>0.7</v>
+        <v>0.835</v>
       </c>
       <c r="I859" t="n">
-        <v>2386300</v>
+        <v>521900</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -30465,28 +30465,28 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>0.705</v>
+        <v>0.77</v>
       </c>
       <c r="F860" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="G860" t="n">
-        <v>0.68</v>
+        <v>0.745</v>
       </c>
       <c r="H860" t="n">
-        <v>0.68</v>
+        <v>0.745</v>
       </c>
       <c r="I860" t="n">
-        <v>703700</v>
+        <v>5333800</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -30500,28 +30500,28 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.745</v>
       </c>
       <c r="F861" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G861" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H861" t="n">
         <v>0.7</v>
       </c>
-      <c r="G861" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="H861" t="n">
-        <v>0.675</v>
-      </c>
       <c r="I861" t="n">
-        <v>1081300</v>
+        <v>2071400</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -30535,28 +30535,28 @@
         </is>
       </c>
       <c r="E862" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G862" t="n">
         <v>0.675</v>
       </c>
-      <c r="F862" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="G862" t="n">
-        <v>0.66</v>
-      </c>
       <c r="H862" t="n">
-        <v>0.665</v>
+        <v>0.73</v>
       </c>
       <c r="I862" t="n">
-        <v>935700</v>
+        <v>4750300</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -30570,28 +30570,28 @@
         </is>
       </c>
       <c r="E863" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G863" t="n">
         <v>0.665</v>
       </c>
-      <c r="F863" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G863" t="n">
-        <v>0.66</v>
-      </c>
       <c r="H863" t="n">
-        <v>0.68</v>
+        <v>0.675</v>
       </c>
       <c r="I863" t="n">
-        <v>822600</v>
+        <v>3577000</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -30605,28 +30605,28 @@
         </is>
       </c>
       <c r="E864" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F864" t="n">
         <v>0.675</v>
       </c>
-      <c r="F864" t="n">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="G864" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="H864" t="n">
         <v>0.675</v>
       </c>
       <c r="I864" t="n">
-        <v>290900</v>
+        <v>961900</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -30640,28 +30640,28 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>0.67</v>
+        <v>0.665</v>
       </c>
       <c r="F865" t="n">
-        <v>0.68</v>
+        <v>0.715</v>
       </c>
       <c r="G865" t="n">
-        <v>0.67</v>
+        <v>0.665</v>
       </c>
       <c r="H865" t="n">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="I865" t="n">
-        <v>316300</v>
+        <v>1856700</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -30675,28 +30675,28 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="F866" t="n">
-        <v>0.71</v>
+        <v>0.715</v>
       </c>
       <c r="G866" t="n">
         <v>0.675</v>
       </c>
       <c r="H866" t="n">
-        <v>0.705</v>
+        <v>0.68</v>
       </c>
       <c r="I866" t="n">
-        <v>843200</v>
+        <v>1648300</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -30710,28 +30710,28 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>0.725</v>
+        <v>0.695</v>
       </c>
       <c r="F867" t="n">
-        <v>0.775</v>
+        <v>0.695</v>
       </c>
       <c r="G867" t="n">
-        <v>0.725</v>
+        <v>0.675</v>
       </c>
       <c r="H867" t="n">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="I867" t="n">
-        <v>5492100</v>
+        <v>596300</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -30745,28 +30745,28 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F868" t="n">
-        <v>0.805</v>
+        <v>0.715</v>
       </c>
       <c r="G868" t="n">
-        <v>0.77</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H868" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="I868" t="n">
-        <v>2951800</v>
+        <v>2386300</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -30780,28 +30780,28 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>0.785</v>
+        <v>0.705</v>
       </c>
       <c r="F869" t="n">
-        <v>0.785</v>
+        <v>0.71</v>
       </c>
       <c r="G869" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="H869" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="I869" t="n">
-        <v>1758500</v>
+        <v>703700</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -30815,28 +30815,28 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>0.73</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F870" t="n">
-        <v>0.735</v>
+        <v>0.7</v>
       </c>
       <c r="G870" t="n">
-        <v>0.715</v>
+        <v>0.675</v>
       </c>
       <c r="H870" t="n">
-        <v>0.715</v>
+        <v>0.675</v>
       </c>
       <c r="I870" t="n">
-        <v>1113400</v>
+        <v>1081300</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -30850,28 +30850,28 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>0.71</v>
+        <v>0.675</v>
       </c>
       <c r="F871" t="n">
-        <v>0.725</v>
+        <v>0.675</v>
       </c>
       <c r="G871" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="H871" t="n">
-        <v>0.72</v>
+        <v>0.665</v>
       </c>
       <c r="I871" t="n">
-        <v>512300</v>
+        <v>935700</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -30885,28 +30885,28 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>0.725</v>
+        <v>0.665</v>
       </c>
       <c r="F872" t="n">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G872" t="n">
-        <v>0.725</v>
+        <v>0.66</v>
       </c>
       <c r="H872" t="n">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="I872" t="n">
-        <v>2127000</v>
+        <v>822600</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -30920,28 +30920,28 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>0.785</v>
+        <v>0.675</v>
       </c>
       <c r="F873" t="n">
-        <v>0.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G873" t="n">
-        <v>0.785</v>
+        <v>0.67</v>
       </c>
       <c r="H873" t="n">
-        <v>0.87</v>
+        <v>0.675</v>
       </c>
       <c r="I873" t="n">
-        <v>8864500</v>
+        <v>290900</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -30955,28 +30955,28 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>0.875</v>
+        <v>0.67</v>
       </c>
       <c r="F874" t="n">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="G874" t="n">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="H874" t="n">
-        <v>0.89</v>
+        <v>0.675</v>
       </c>
       <c r="I874" t="n">
-        <v>1955500</v>
+        <v>316300</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -30990,28 +30990,28 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="F875" t="n">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="G875" t="n">
-        <v>0.875</v>
+        <v>0.675</v>
       </c>
       <c r="H875" t="n">
-        <v>0.885</v>
+        <v>0.705</v>
       </c>
       <c r="I875" t="n">
-        <v>1441300</v>
+        <v>843200</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -31025,28 +31025,28 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>0.885</v>
+        <v>0.725</v>
       </c>
       <c r="F876" t="n">
-        <v>0.885</v>
+        <v>0.775</v>
       </c>
       <c r="G876" t="n">
-        <v>0.865</v>
+        <v>0.725</v>
       </c>
       <c r="H876" t="n">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="I876" t="n">
-        <v>641700</v>
+        <v>5492100</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -31060,28 +31060,28 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>0.885</v>
+        <v>0.78</v>
       </c>
       <c r="F877" t="n">
-        <v>0.945</v>
+        <v>0.805</v>
       </c>
       <c r="G877" t="n">
-        <v>0.885</v>
+        <v>0.77</v>
       </c>
       <c r="H877" t="n">
-        <v>0.925</v>
+        <v>0.78</v>
       </c>
       <c r="I877" t="n">
-        <v>3802700</v>
+        <v>2951800</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -31095,28 +31095,28 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>0.93</v>
+        <v>0.785</v>
       </c>
       <c r="F878" t="n">
-        <v>0.945</v>
+        <v>0.785</v>
       </c>
       <c r="G878" t="n">
-        <v>0.905</v>
+        <v>0.73</v>
       </c>
       <c r="H878" t="n">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
       <c r="I878" t="n">
-        <v>1470900</v>
+        <v>1758500</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -31130,28 +31130,28 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>0.915</v>
+        <v>0.73</v>
       </c>
       <c r="F879" t="n">
-        <v>0.915</v>
+        <v>0.735</v>
       </c>
       <c r="G879" t="n">
-        <v>0.85</v>
+        <v>0.715</v>
       </c>
       <c r="H879" t="n">
-        <v>0.865</v>
+        <v>0.715</v>
       </c>
       <c r="I879" t="n">
-        <v>1223400</v>
+        <v>1113400</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -31165,28 +31165,28 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>0.865</v>
+        <v>0.71</v>
       </c>
       <c r="F880" t="n">
-        <v>0.89</v>
+        <v>0.725</v>
       </c>
       <c r="G880" t="n">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="H880" t="n">
-        <v>0.875</v>
+        <v>0.72</v>
       </c>
       <c r="I880" t="n">
-        <v>567000</v>
+        <v>512300</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -31200,28 +31200,28 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>0.86</v>
+        <v>0.725</v>
       </c>
       <c r="F881" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="G881" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.725</v>
       </c>
       <c r="H881" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="I881" t="n">
-        <v>1441400</v>
+        <v>2127000</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -31235,28 +31235,28 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>0.845</v>
+        <v>0.785</v>
       </c>
       <c r="F882" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G882" t="n">
-        <v>0.835</v>
+        <v>0.785</v>
       </c>
       <c r="H882" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="I882" t="n">
-        <v>600100</v>
+        <v>8864500</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -31270,28 +31270,28 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>0.855</v>
+        <v>0.875</v>
       </c>
       <c r="F883" t="n">
         <v>0.9</v>
       </c>
       <c r="G883" t="n">
-        <v>0.855</v>
+        <v>0.87</v>
       </c>
       <c r="H883" t="n">
-        <v>0.865</v>
+        <v>0.89</v>
       </c>
       <c r="I883" t="n">
-        <v>1032700</v>
+        <v>1955500</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -31305,28 +31305,28 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>0.865</v>
+        <v>0.89</v>
       </c>
       <c r="F884" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="G884" t="n">
-        <v>0.855</v>
+        <v>0.875</v>
       </c>
       <c r="H884" t="n">
-        <v>0.895</v>
+        <v>0.885</v>
       </c>
       <c r="I884" t="n">
-        <v>619800</v>
+        <v>1441300</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -31340,28 +31340,28 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>0.9</v>
+        <v>0.885</v>
       </c>
       <c r="F885" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="G885" t="n">
-        <v>0.89</v>
+        <v>0.865</v>
       </c>
       <c r="H885" t="n">
-        <v>0.925</v>
+        <v>0.87</v>
       </c>
       <c r="I885" t="n">
-        <v>2532600</v>
+        <v>641700</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -31375,28 +31375,28 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.885</v>
       </c>
       <c r="F886" t="n">
-        <v>0.95</v>
+        <v>0.945</v>
       </c>
       <c r="G886" t="n">
-        <v>0.91</v>
+        <v>0.885</v>
       </c>
       <c r="H886" t="n">
-        <v>0.92</v>
+        <v>0.925</v>
       </c>
       <c r="I886" t="n">
-        <v>1930000</v>
+        <v>3802700</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -31410,28 +31410,28 @@
         </is>
       </c>
       <c r="E887" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F887" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G887" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H887" t="n">
         <v>0.92</v>
       </c>
-      <c r="F887" t="n">
-        <v>0.925</v>
-      </c>
-      <c r="G887" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="H887" t="n">
-        <v>0.89</v>
-      </c>
       <c r="I887" t="n">
-        <v>616700</v>
+        <v>1470900</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -31445,28 +31445,28 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>0.89</v>
+        <v>0.915</v>
       </c>
       <c r="F888" t="n">
-        <v>0.9</v>
+        <v>0.915</v>
       </c>
       <c r="G888" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="H888" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="I888" t="n">
-        <v>1454500</v>
+        <v>1223400</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -31480,10 +31480,10 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>0.905</v>
+        <v>0.865</v>
       </c>
       <c r="F889" t="n">
-        <v>0.905</v>
+        <v>0.89</v>
       </c>
       <c r="G889" t="n">
         <v>0.86</v>
@@ -31492,16 +31492,16 @@
         <v>0.875</v>
       </c>
       <c r="I889" t="n">
-        <v>1798500</v>
+        <v>567000</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -31515,28 +31515,28 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="F890" t="n">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="G890" t="n">
-        <v>0.845</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H890" t="n">
-        <v>0.845</v>
+        <v>0.82</v>
       </c>
       <c r="I890" t="n">
-        <v>790100</v>
+        <v>1441400</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -31550,28 +31550,28 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>0.84</v>
+        <v>0.845</v>
       </c>
       <c r="F891" t="n">
-        <v>0.865</v>
+        <v>0.85</v>
       </c>
       <c r="G891" t="n">
         <v>0.835</v>
       </c>
       <c r="H891" t="n">
-        <v>0.845</v>
+        <v>0.85</v>
       </c>
       <c r="I891" t="n">
-        <v>370000</v>
+        <v>600100</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -31585,28 +31585,28 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>0.845</v>
+        <v>0.855</v>
       </c>
       <c r="F892" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="G892" t="n">
-        <v>0.84</v>
+        <v>0.855</v>
       </c>
       <c r="H892" t="n">
-        <v>0.885</v>
+        <v>0.865</v>
       </c>
       <c r="I892" t="n">
-        <v>1955400</v>
+        <v>1032700</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -31620,28 +31620,28 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>0.89</v>
+        <v>0.865</v>
       </c>
       <c r="F893" t="n">
         <v>0.895</v>
       </c>
       <c r="G893" t="n">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="H893" t="n">
-        <v>0.86</v>
+        <v>0.895</v>
       </c>
       <c r="I893" t="n">
-        <v>746100</v>
+        <v>619800</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -31655,28 +31655,28 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>0.835</v>
+        <v>0.9</v>
       </c>
       <c r="F894" t="n">
-        <v>0.86</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G894" t="n">
-        <v>0.805</v>
+        <v>0.89</v>
       </c>
       <c r="H894" t="n">
-        <v>0.835</v>
+        <v>0.925</v>
       </c>
       <c r="I894" t="n">
-        <v>1031200</v>
+        <v>2532600</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -31690,28 +31690,28 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>0.835</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F895" t="n">
-        <v>0.865</v>
+        <v>0.95</v>
       </c>
       <c r="G895" t="n">
-        <v>0.835</v>
+        <v>0.91</v>
       </c>
       <c r="H895" t="n">
-        <v>0.855</v>
+        <v>0.92</v>
       </c>
       <c r="I895" t="n">
-        <v>1079600</v>
+        <v>1930000</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -31725,28 +31725,28 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>0.855</v>
+        <v>0.92</v>
       </c>
       <c r="F896" t="n">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="G896" t="n">
-        <v>0.835</v>
+        <v>0.89</v>
       </c>
       <c r="H896" t="n">
-        <v>0.855</v>
+        <v>0.89</v>
       </c>
       <c r="I896" t="n">
-        <v>1442100</v>
+        <v>616700</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -31760,28 +31760,28 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>0.855</v>
+        <v>0.89</v>
       </c>
       <c r="F897" t="n">
-        <v>0.905</v>
+        <v>0.9</v>
       </c>
       <c r="G897" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="H897" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="I897" t="n">
-        <v>4970400</v>
+        <v>1454500</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -31795,28 +31795,28 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.905</v>
       </c>
       <c r="F898" t="n">
-        <v>0.84</v>
+        <v>0.905</v>
       </c>
       <c r="G898" t="n">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="H898" t="n">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="I898" t="n">
-        <v>1670700</v>
+        <v>1798500</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -31830,28 +31830,28 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="F899" t="n">
-        <v>0.905</v>
+        <v>0.875</v>
       </c>
       <c r="G899" t="n">
-        <v>0.825</v>
+        <v>0.845</v>
       </c>
       <c r="H899" t="n">
-        <v>0.895</v>
+        <v>0.845</v>
       </c>
       <c r="I899" t="n">
-        <v>5714900</v>
+        <v>790100</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -31865,28 +31865,28 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>0.915</v>
+        <v>0.84</v>
       </c>
       <c r="F900" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.865</v>
       </c>
       <c r="G900" t="n">
-        <v>0.88</v>
+        <v>0.835</v>
       </c>
       <c r="H900" t="n">
-        <v>0.885</v>
+        <v>0.845</v>
       </c>
       <c r="I900" t="n">
-        <v>12906900</v>
+        <v>370000</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -31900,28 +31900,28 @@
         </is>
       </c>
       <c r="E901" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G901" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H901" t="n">
         <v>0.885</v>
       </c>
-      <c r="F901" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="G901" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="H901" t="n">
-        <v>0.93</v>
-      </c>
       <c r="I901" t="n">
-        <v>3613100</v>
+        <v>1955400</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -31935,28 +31935,28 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F902" t="n">
-        <v>0.995</v>
+        <v>0.895</v>
       </c>
       <c r="G902" t="n">
-        <v>0.925</v>
+        <v>0.86</v>
       </c>
       <c r="H902" t="n">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="I902" t="n">
-        <v>23647600</v>
+        <v>746100</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -31970,28 +31970,28 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>0.96</v>
+        <v>0.835</v>
       </c>
       <c r="F903" t="n">
-        <v>1.02</v>
+        <v>0.86</v>
       </c>
       <c r="G903" t="n">
-        <v>0.955</v>
+        <v>0.805</v>
       </c>
       <c r="H903" t="n">
-        <v>0.995</v>
+        <v>0.835</v>
       </c>
       <c r="I903" t="n">
-        <v>21050400</v>
+        <v>1031200</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -32005,28 +32005,28 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>1</v>
+        <v>0.835</v>
       </c>
       <c r="F904" t="n">
-        <v>1</v>
+        <v>0.865</v>
       </c>
       <c r="G904" t="n">
-        <v>0.965</v>
+        <v>0.835</v>
       </c>
       <c r="H904" t="n">
-        <v>0.99</v>
+        <v>0.855</v>
       </c>
       <c r="I904" t="n">
-        <v>5269000</v>
+        <v>1079600</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -32040,28 +32040,28 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>0.99</v>
+        <v>0.855</v>
       </c>
       <c r="F905" t="n">
-        <v>1.03</v>
+        <v>0.875</v>
       </c>
       <c r="G905" t="n">
-        <v>0.955</v>
+        <v>0.835</v>
       </c>
       <c r="H905" t="n">
-        <v>0.975</v>
+        <v>0.855</v>
       </c>
       <c r="I905" t="n">
-        <v>15855700</v>
+        <v>1442100</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -32075,28 +32075,28 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>0.98</v>
+        <v>0.855</v>
       </c>
       <c r="F906" t="n">
-        <v>0.995</v>
+        <v>0.905</v>
       </c>
       <c r="G906" t="n">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="H906" t="n">
-        <v>0.975</v>
+        <v>0.84</v>
       </c>
       <c r="I906" t="n">
-        <v>4921000</v>
+        <v>4970400</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -32110,28 +32110,28 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F907" t="n">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="G907" t="n">
-        <v>0.945</v>
+        <v>0.79</v>
       </c>
       <c r="H907" t="n">
-        <v>0.96</v>
+        <v>0.825</v>
       </c>
       <c r="I907" t="n">
-        <v>4976000</v>
+        <v>1670700</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -32145,28 +32145,28 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>0.955</v>
+        <v>0.825</v>
       </c>
       <c r="F908" t="n">
-        <v>0.975</v>
+        <v>0.905</v>
       </c>
       <c r="G908" t="n">
-        <v>0.87</v>
+        <v>0.825</v>
       </c>
       <c r="H908" t="n">
         <v>0.895</v>
       </c>
       <c r="I908" t="n">
-        <v>15030400</v>
+        <v>5714900</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -32180,28 +32180,28 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>0.895</v>
+        <v>0.915</v>
       </c>
       <c r="F909" t="n">
-        <v>0.895</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G909" t="n">
-        <v>0.825</v>
+        <v>0.88</v>
       </c>
       <c r="H909" t="n">
-        <v>0.84</v>
+        <v>0.885</v>
       </c>
       <c r="I909" t="n">
-        <v>7228000</v>
+        <v>12906900</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -32215,28 +32215,28 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>0.84</v>
+        <v>0.885</v>
       </c>
       <c r="F910" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="G910" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="H910" t="n">
-        <v>0.875</v>
+        <v>0.93</v>
       </c>
       <c r="I910" t="n">
-        <v>11568900</v>
+        <v>3613100</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -32250,28 +32250,28 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>0.875</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F911" t="n">
-        <v>0.895</v>
+        <v>0.995</v>
       </c>
       <c r="G911" t="n">
-        <v>0.84</v>
+        <v>0.925</v>
       </c>
       <c r="H911" t="n">
-        <v>0.875</v>
+        <v>0.97</v>
       </c>
       <c r="I911" t="n">
-        <v>5987800</v>
+        <v>23647600</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -32285,28 +32285,28 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>0.865</v>
+        <v>0.96</v>
       </c>
       <c r="F912" t="n">
-        <v>0.865</v>
+        <v>1.02</v>
       </c>
       <c r="G912" t="n">
-        <v>0.845</v>
+        <v>0.955</v>
       </c>
       <c r="H912" t="n">
-        <v>0.845</v>
+        <v>0.995</v>
       </c>
       <c r="I912" t="n">
-        <v>2480700</v>
+        <v>21050400</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -32320,28 +32320,28 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="F913" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="G913" t="n">
-        <v>0.76</v>
+        <v>0.965</v>
       </c>
       <c r="H913" t="n">
-        <v>0.77</v>
+        <v>0.99</v>
       </c>
       <c r="I913" t="n">
-        <v>6599700</v>
+        <v>5269000</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -32355,28 +32355,28 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>0.745</v>
+        <v>0.99</v>
       </c>
       <c r="F914" t="n">
-        <v>0.785</v>
+        <v>1.03</v>
       </c>
       <c r="G914" t="n">
-        <v>0.74</v>
+        <v>0.955</v>
       </c>
       <c r="H914" t="n">
-        <v>0.765</v>
+        <v>0.975</v>
       </c>
       <c r="I914" t="n">
-        <v>3393100</v>
+        <v>15855700</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -32390,28 +32390,28 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>0.765</v>
+        <v>0.98</v>
       </c>
       <c r="F915" t="n">
-        <v>0.785</v>
+        <v>0.995</v>
       </c>
       <c r="G915" t="n">
-        <v>0.74</v>
+        <v>0.96</v>
       </c>
       <c r="H915" t="n">
-        <v>0.76</v>
+        <v>0.975</v>
       </c>
       <c r="I915" t="n">
-        <v>3554000</v>
+        <v>4921000</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -32425,28 +32425,28 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>0.76</v>
+        <v>0.97</v>
       </c>
       <c r="F916" t="n">
-        <v>0.76</v>
+        <v>0.99</v>
       </c>
       <c r="G916" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.945</v>
       </c>
       <c r="H916" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="I916" t="n">
-        <v>5270000</v>
+        <v>4976000</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -32460,28 +32460,28 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>0.665</v>
+        <v>0.955</v>
       </c>
       <c r="F917" t="n">
-        <v>0.67</v>
+        <v>0.975</v>
       </c>
       <c r="G917" t="n">
-        <v>0.61</v>
+        <v>0.87</v>
       </c>
       <c r="H917" t="n">
-        <v>0.645</v>
+        <v>0.895</v>
       </c>
       <c r="I917" t="n">
-        <v>3756800</v>
+        <v>15030400</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -32495,28 +32495,28 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>0.655</v>
+        <v>0.895</v>
       </c>
       <c r="F918" t="n">
-        <v>0.68</v>
+        <v>0.895</v>
       </c>
       <c r="G918" t="n">
-        <v>0.61</v>
+        <v>0.825</v>
       </c>
       <c r="H918" t="n">
-        <v>0.675</v>
+        <v>0.84</v>
       </c>
       <c r="I918" t="n">
-        <v>1922700</v>
+        <v>7228000</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -32530,28 +32530,28 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="F919" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="G919" t="n">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="H919" t="n">
-        <v>0.66</v>
+        <v>0.875</v>
       </c>
       <c r="I919" t="n">
-        <v>1644400</v>
+        <v>11568900</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -32565,28 +32565,28 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>0.64</v>
+        <v>0.875</v>
       </c>
       <c r="F920" t="n">
-        <v>0.665</v>
+        <v>0.895</v>
       </c>
       <c r="G920" t="n">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="H920" t="n">
-        <v>0.66</v>
+        <v>0.875</v>
       </c>
       <c r="I920" t="n">
-        <v>1087700</v>
+        <v>5987800</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -32600,28 +32600,28 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>0.66</v>
+        <v>0.865</v>
       </c>
       <c r="F921" t="n">
-        <v>0.695</v>
+        <v>0.865</v>
       </c>
       <c r="G921" t="n">
-        <v>0.66</v>
+        <v>0.845</v>
       </c>
       <c r="H921" t="n">
-        <v>0.675</v>
+        <v>0.845</v>
       </c>
       <c r="I921" t="n">
-        <v>2112900</v>
+        <v>2480700</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -32635,28 +32635,28 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>0.675</v>
+        <v>0.82</v>
       </c>
       <c r="F922" t="n">
-        <v>0.675</v>
+        <v>0.82</v>
       </c>
       <c r="G922" t="n">
-        <v>0.655</v>
+        <v>0.76</v>
       </c>
       <c r="H922" t="n">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
       <c r="I922" t="n">
-        <v>824300</v>
+        <v>6599700</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -32670,28 +32670,28 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>0.64</v>
+        <v>0.745</v>
       </c>
       <c r="F923" t="n">
-        <v>0.64</v>
+        <v>0.785</v>
       </c>
       <c r="G923" t="n">
-        <v>0.5</v>
+        <v>0.74</v>
       </c>
       <c r="H923" t="n">
-        <v>0.5</v>
+        <v>0.765</v>
       </c>
       <c r="I923" t="n">
-        <v>2957100</v>
+        <v>3393100</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -32705,28 +32705,28 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>0.475</v>
+        <v>0.765</v>
       </c>
       <c r="F924" t="n">
-        <v>0.54</v>
+        <v>0.785</v>
       </c>
       <c r="G924" t="n">
-        <v>0.47</v>
+        <v>0.74</v>
       </c>
       <c r="H924" t="n">
-        <v>0.515</v>
+        <v>0.76</v>
       </c>
       <c r="I924" t="n">
-        <v>3015100</v>
+        <v>3554000</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -32740,28 +32740,28 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
       <c r="F925" t="n">
-        <v>0.54</v>
+        <v>0.76</v>
       </c>
       <c r="G925" t="n">
-        <v>0.505</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H925" t="n">
-        <v>0.505</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I925" t="n">
-        <v>1817300</v>
+        <v>5270000</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -32775,53 +32775,368 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>0.5</v>
+        <v>0.665</v>
       </c>
       <c r="F926" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G926" t="n">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="H926" t="n">
-        <v>0.415</v>
+        <v>0.645</v>
       </c>
       <c r="I926" t="n">
-        <v>4194400</v>
+        <v>3756800</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F927" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G927" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H927" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I927" t="n">
+        <v>1922700</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E928" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F928" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G928" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H928" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I928" t="n">
+        <v>1644400</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E929" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F929" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G929" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H929" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I929" t="n">
+        <v>1087700</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E930" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F930" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G930" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H930" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I930" t="n">
+        <v>2112900</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E931" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F931" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G931" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H931" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I931" t="n">
+        <v>824300</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E932" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F932" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G932" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H932" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I932" t="n">
+        <v>2957100</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E933" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F933" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G933" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H933" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I933" t="n">
+        <v>3015100</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E934" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F934" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G934" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H934" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I934" t="n">
+        <v>1817300</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E935" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F935" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G935" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H935" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I935" t="n">
+        <v>4194400</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B927" t="inlineStr">
+      <c r="B936" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C927" t="inlineStr">
-        <is>
-          <t>0183</t>
-        </is>
-      </c>
-      <c r="D927" t="inlineStr">
-        <is>
-          <t>SALUTE</t>
-        </is>
-      </c>
-      <c r="E927" t="n">
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E936" t="n">
         <v>0.39</v>
       </c>
-      <c r="F927" t="n">
+      <c r="F936" t="n">
         <v>0.42</v>
       </c>
-      <c r="G927" t="n">
+      <c r="G936" t="n">
         <v>0.36</v>
       </c>
-      <c r="H927" t="n">
+      <c r="H936" t="n">
         <v>0.4</v>
       </c>
-      <c r="I927" t="n">
+      <c r="I936" t="n">
         <v>4176000</v>
       </c>
     </row>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I936"/>
+  <dimension ref="A1:I937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33140,6 +33140,41 @@
         <v>4176000</v>
       </c>
     </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E937" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F937" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G937" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H937" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I937" t="n">
+        <v>2012400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I937"/>
+  <dimension ref="A1:I938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33175,6 +33175,41 @@
         <v>2012400</v>
       </c>
     </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E938" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F938" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G938" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H938" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I938" t="n">
+        <v>4184300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I938"/>
+  <dimension ref="A1:I939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33210,6 +33210,41 @@
         <v>4184300</v>
       </c>
     </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E939" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F939" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G939" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H939" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I939" t="n">
+        <v>3737600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I939"/>
+  <dimension ref="A1:I940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33245,6 +33245,41 @@
         <v>3737600</v>
       </c>
     </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E940" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F940" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G940" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H940" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I940" t="n">
+        <v>2401100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I940"/>
+  <dimension ref="A1:I941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33280,6 +33280,41 @@
         <v>2401100</v>
       </c>
     </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E941" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F941" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G941" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H941" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I941" t="n">
+        <v>5994900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I941"/>
+  <dimension ref="A1:I942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33315,6 +33315,41 @@
         <v>5994900</v>
       </c>
     </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E942" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F942" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G942" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H942" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I942" t="n">
+        <v>4310400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I942"/>
+  <dimension ref="A1:I943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33350,6 +33350,41 @@
         <v>4310400</v>
       </c>
     </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E943" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F943" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G943" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H943" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I943" t="n">
+        <v>7500600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I943"/>
+  <dimension ref="A1:I944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33385,6 +33385,41 @@
         <v>7500600</v>
       </c>
     </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E944" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G944" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H944" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I944" t="n">
+        <v>7909000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I944"/>
+  <dimension ref="A1:I945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33420,6 +33420,41 @@
         <v>7909000</v>
       </c>
     </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E945" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F945" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G945" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H945" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I945" t="n">
+        <v>4352900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I945"/>
+  <dimension ref="A1:I946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33455,6 +33455,41 @@
         <v>4352900</v>
       </c>
     </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E946" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F946" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G946" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H946" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I946" t="n">
+        <v>9270700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I946"/>
+  <dimension ref="A1:I947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33490,6 +33490,41 @@
         <v>9270700</v>
       </c>
     </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E947" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G947" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H947" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I947" t="n">
+        <v>4518400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I947"/>
+  <dimension ref="A1:I948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33525,6 +33525,41 @@
         <v>4518400</v>
       </c>
     </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E948" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F948" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G948" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H948" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I948" t="n">
+        <v>20583200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I948"/>
+  <dimension ref="A1:I949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33560,6 +33560,41 @@
         <v>20583200</v>
       </c>
     </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E949" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F949" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G949" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H949" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I949" t="n">
+        <v>26020400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I949"/>
+  <dimension ref="A1:I950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33595,6 +33595,41 @@
         <v>26020400</v>
       </c>
     </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E950" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F950" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G950" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H950" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I950" t="n">
+        <v>15704200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I950"/>
+  <dimension ref="A1:I951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33630,6 +33630,41 @@
         <v>15704200</v>
       </c>
     </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E951" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F951" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G951" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H951" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I951" t="n">
+        <v>7106600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I951"/>
+  <dimension ref="A1:I952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33665,6 +33665,41 @@
         <v>7106600</v>
       </c>
     </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E952" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F952" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G952" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H952" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I952" t="n">
+        <v>12759200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I952"/>
+  <dimension ref="A1:I953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33700,6 +33700,41 @@
         <v>12759200</v>
       </c>
     </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E953" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F953" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G953" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H953" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I953" t="n">
+        <v>20382600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I953"/>
+  <dimension ref="A1:I954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33735,6 +33735,41 @@
         <v>20382600</v>
       </c>
     </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E954" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F954" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G954" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H954" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I954" t="n">
+        <v>14349900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I954"/>
+  <dimension ref="A1:I955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33770,6 +33770,41 @@
         <v>14349900</v>
       </c>
     </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E955" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F955" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G955" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H955" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I955" t="n">
+        <v>11080100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I955"/>
+  <dimension ref="A1:I956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33805,6 +33805,41 @@
         <v>11080100</v>
       </c>
     </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E956" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F956" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G956" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H956" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I956" t="n">
+        <v>12863000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I956"/>
+  <dimension ref="A1:I957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33840,6 +33840,41 @@
         <v>12863000</v>
       </c>
     </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E957" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F957" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G957" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H957" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I957" t="n">
+        <v>5570800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I957"/>
+  <dimension ref="A1:I958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33875,6 +33875,41 @@
         <v>5570800</v>
       </c>
     </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E958" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F958" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G958" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H958" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I958" t="n">
+        <v>8975900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I958"/>
+  <dimension ref="A1:I959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33910,6 +33910,41 @@
         <v>8975900</v>
       </c>
     </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E959" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G959" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H959" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I959" t="n">
+        <v>15996600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I959"/>
+  <dimension ref="A1:I960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33945,6 +33945,41 @@
         <v>15996600</v>
       </c>
     </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E960" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G960" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H960" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I960" t="n">
+        <v>7180200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I960"/>
+  <dimension ref="A1:I961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33980,6 +33980,41 @@
         <v>7180200</v>
       </c>
     </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E961" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G961" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I961" t="n">
+        <v>38114700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I961"/>
+  <dimension ref="A1:I963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34015,6 +34015,76 @@
         <v>38114700</v>
       </c>
     </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E962" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G962" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H962" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I962" t="n">
+        <v>21648900</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E963" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F963" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G963" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H963" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I963" t="n">
+        <v>13429000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I963"/>
+  <dimension ref="A1:I964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34085,6 +34085,41 @@
         <v>13429000</v>
       </c>
     </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E964" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G964" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H964" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I964" t="n">
+        <v>24215300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I964"/>
+  <dimension ref="A1:I967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34120,6 +34120,111 @@
         <v>24215300</v>
       </c>
     </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E965" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G965" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H965" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I965" t="n">
+        <v>33734900</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E966" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F966" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G966" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H966" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I966" t="n">
+        <v>6126000</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E967" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G967" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H967" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I967" t="n">
+        <v>18163800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I967"/>
+  <dimension ref="A1:I968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34225,6 +34225,41 @@
         <v>18163800</v>
       </c>
     </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E968" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F968" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G968" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H968" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I968" t="n">
+        <v>20263700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I968"/>
+  <dimension ref="A1:I969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34260,6 +34260,41 @@
         <v>20263700</v>
       </c>
     </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E969" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F969" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G969" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H969" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I969" t="n">
+        <v>15187300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0183.xlsx
+++ b/data/0183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I969"/>
+  <dimension ref="A1:I972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34295,6 +34295,111 @@
         <v>15187300</v>
       </c>
     </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E970" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F970" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G970" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H970" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I970" t="n">
+        <v>30718500</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E971" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F971" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G971" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H971" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I971" t="n">
+        <v>12652400</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="E972" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F972" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G972" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H972" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I972" t="n">
+        <v>12001400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
